--- a/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
+++ b/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
   <si>
     <t>3주차</t>
   </si>
@@ -141,18 +141,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 레이아웃/상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -177,21 +165,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 분석 / 설계
-와이어프레임 제출(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계
-프로토타이핑 1차 제출(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계
-프로토타이핑 2차 제출(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -225,10 +198,6 @@
   </si>
   <si>
     <t>도깨비 PJ 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 테스트/수정/배포</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -439,31 +408,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-그래픽 기초(일러스트) + 프로토타이핑(Figma)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기초연습
-그래픽 기초(포토샵) + 와이어프레이밍(Balsamiq)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기초연습
-그래픽 기초(포토샵) + 와이어프레이밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기초연습
-그래픽 기초(일러스트) + 프로토타이핑(Figma)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-그래픽 응용(웹사이트 디자인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML5 + CSS3 응용연습
 Javascript 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -479,28 +423,101 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 산출물작업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 PJ 발표 / 산출물작업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 PJ 테스트/수정/배포</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 PJ 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 PJ 주제선정
-2차 PJ 분석/설계</t>
+    <t>1차 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비단계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 주제선정 및 분석 / 설계
+와이어프레이밍 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / UI디자인
+포토샵 화면 디자인 작업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / UI디자인
+포토샵 화면 디자인 작업
+1차 제출(7/29:화)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+포토샵 화면 디자인 작업
+2차 제출(8/8:금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기초연습
+그래픽 기초(일러스트) + (웹사이트 디자인)
+프로토타이핑(Figma)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+그래픽 기초(일러스트) + (웹사이트 디자인)
+프로토타이핑(Figma)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+그래픽 응용(웹사이트 디자인)
+프로토타이핑(Figma)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기초연습
+그래픽 기초(포토샵)
+와이어프레이밍(Balsamiq)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기초연습
+그래픽 기초(포토샵) + (일러스트)
+와이어프레이밍(Balsamiq)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 주제선정 및 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 PJ 테스트/수정/배포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 PJ 발표 / 산출물작업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 산출물작업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 테스트/수정/배포
+2차 미니팀PJ 팀구성/주제선정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +695,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -842,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +974,48 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,46 +1037,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,7 +1374,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1348,41 +1395,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="B2" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1390,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>31</v>
@@ -1407,7 +1454,7 @@
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="10">
         <v>45561</v>
@@ -1429,13 +1476,13 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10">
         <v>45565</v>
@@ -1457,13 +1504,13 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="10">
         <v>45572</v>
@@ -1485,104 +1532,104 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="44">
         <v>45834</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="51">
+      <c r="D8" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="44">
         <v>45835</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="46">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="56" t="s">
-        <v>87</v>
+      <c r="G8" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="58">
         <v>45838</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="44">
+      <c r="D9" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="58">
         <v>45842</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="60">
         <f t="shared" ref="F9:F27" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="49"/>
+      <c r="G9" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="63"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="37">
         <v>45845</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="D10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="37">
         <v>45849</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="23"/>
+      <c r="G10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B11" s="17" t="s">
@@ -1602,17 +1649,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>96</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L11" s="23"/>
     </row>
@@ -1634,17 +1681,17 @@
         <v>5</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L12" s="23"/>
     </row>
@@ -1666,14 +1713,14 @@
         <v>2</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>102</v>
@@ -1698,16 +1745,16 @@
         <v>5</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>102</v>
@@ -1732,14 +1779,14 @@
         <v>4</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>103</v>
@@ -1764,14 +1811,14 @@
         <v>5</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K16" s="22" t="s">
         <v>103</v>
@@ -1796,22 +1843,22 @@
         <v>5</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>113</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
@@ -1832,17 +1879,17 @@
         <v>5</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="L18" s="23"/>
     </row>
@@ -1864,19 +1911,19 @@
         <v>5</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L19" s="23"/>
     </row>
@@ -1898,19 +1945,19 @@
         <v>5</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L20" s="23"/>
     </row>
@@ -1932,17 +1979,17 @@
         <v>5</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>110</v>
+        <v>49</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L21" s="23"/>
     </row>
@@ -1964,17 +2011,17 @@
         <v>4</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J22" s="22" t="s">
         <v>109</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L22" s="23"/>
     </row>
@@ -1996,17 +2043,17 @@
         <v>1</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>109</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L23" s="23"/>
     </row>
@@ -2028,19 +2075,19 @@
         <v>5</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>109</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L24" s="23"/>
     </row>
@@ -2062,19 +2109,19 @@
         <v>5</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L25" s="23"/>
     </row>
@@ -2096,22 +2143,22 @@
         <v>5</v>
       </c>
       <c r="G26" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="30" t="s">
         <v>82</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="56.45" customHeight="1">
@@ -2132,19 +2179,19 @@
         <v>5</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H27" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>105</v>
       </c>
       <c r="L27" s="26"/>
     </row>
@@ -2166,17 +2213,17 @@
         <v>5</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L28" s="25"/>
     </row>
@@ -2198,22 +2245,22 @@
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2225,36 +2272,36 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
     </row>
     <row r="32" spans="2:12" s="5" customFormat="1" ht="25.7">
-      <c r="B32" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
+      <c r="B32" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
